--- a/Plotting/production_shares_olefins.xlsx
+++ b/Plotting/production_shares_olefins.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,26 +618,26 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>\ce{CO2} utilization</t>
+          <t>CO$_2$ utilization</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>530976.2152441299</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>825594.7923264366</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>554626.5779700219</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>777848.789774436</v>
       </c>
     </row>
     <row r="9">
@@ -675,19 +675,44 @@
         <v>1427617.9008</v>
       </c>
       <c r="C10" t="n">
-        <v>1369716.343820351</v>
+        <v>900284.6241975442</v>
       </c>
       <c r="D10" t="n">
-        <v>1084085.207654121</v>
+        <v>454975.1232203955</v>
       </c>
       <c r="E10" t="n">
         <v>1427617.9008</v>
       </c>
       <c r="F10" t="n">
-        <v>1355053.422029978</v>
+        <v>961930.6147643093</v>
       </c>
       <c r="G10" t="n">
-        <v>1131831.210225564</v>
+        <v>530856.9955856972</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Plastic waste recycling with CC</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>478419.1605583254</v>
+      </c>
+      <c r="D11" t="n">
+        <v>629110.0844337253</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>393122.8072656688</v>
+      </c>
+      <c r="G11" t="n">
+        <v>600974.2146398668</v>
       </c>
     </row>
   </sheetData>

--- a/Plotting/production_shares_olefins.xlsx
+++ b/Plotting/production_shares_olefins.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,100 +618,125 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>CO$_2$ utilization</t>
+          <t>Water electrolysis</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>530976.2152441299</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>825594.7923264366</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>554626.5779700219</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>777848.789774436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Bio-based feedstock</t>
+          <t>CO$_2$ utilization</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>482062.0991999984</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>530976.2152441299</v>
       </c>
       <c r="D9" t="n">
-        <v>2.040538149338259e-05</v>
+        <v>825594.7923264366</v>
       </c>
       <c r="E9" t="n">
-        <v>482062.0991999998</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>554626.5779700219</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>777848.789774436</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Plastic waste recycling</t>
+          <t>Bio-based feedstock</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1427617.9008</v>
+        <v>482062.0991999984</v>
       </c>
       <c r="C10" t="n">
-        <v>900284.6241975442</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>454975.1232203955</v>
+        <v>2.040538149338259e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>1427617.9008</v>
+        <v>482062.0991999998</v>
       </c>
       <c r="F10" t="n">
-        <v>961930.6147643093</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>530856.9955856972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
+          <t>Plastic waste recycling</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1427617.9008</v>
+      </c>
+      <c r="C11" t="n">
+        <v>900284.6241975442</v>
+      </c>
+      <c r="D11" t="n">
+        <v>454975.1232203955</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1427617.9008</v>
+      </c>
+      <c r="F11" t="n">
+        <v>961930.6147643093</v>
+      </c>
+      <c r="G11" t="n">
+        <v>530856.9955856972</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
           <t>Plastic waste recycling with CC</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
         <v>478419.1605583254</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>629110.0844337253</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>393122.8072656688</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>600974.2146398668</v>
       </c>
     </row>

--- a/Plotting/production_shares_olefins.xlsx
+++ b/Plotting/production_shares_olefins.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,18 +469,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>EmissionLimit Greenfield</t>
+          <t>Emissionlimit Brownfield</t>
         </is>
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>EmissionLimit Brownfield</t>
-        </is>
-      </c>
+      <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,11 +499,25 @@
       <c r="D2" s="1" t="n"/>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>Chemelot</t>
+          <t>Zeeland</t>
         </is>
       </c>
       <c r="F2" s="1" t="n"/>
       <c r="G2" s="1" t="n"/>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>MPWemission</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="n"/>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>OptBIO</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="n"/>
+      <c r="M2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -539,6 +555,36 @@
           <t>2050</t>
         </is>
       </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +610,24 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +653,24 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +696,24 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +739,24 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -650,19 +768,37 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>530976.2152441299</v>
+        <v>554626.5779700219</v>
       </c>
       <c r="D9" t="n">
-        <v>825594.7923264366</v>
+        <v>777848.789774436</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>554626.5779700219</v>
+        <v>695073.3172231395</v>
       </c>
       <c r="G9" t="n">
-        <v>777848.789774436</v>
+        <v>1307015.76555617</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>653899.105228933</v>
+      </c>
+      <c r="J9" t="n">
+        <v>834670.9833528211</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>496209.4965803243</v>
+      </c>
+      <c r="M9" t="n">
+        <v>728280.1200000008</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +808,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>482062.0991999984</v>
+        <v>482062.0991999998</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2.040538149338259e-05</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>482062.0991999998</v>
+        <v>664594.5695999744</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1181399.88</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1181100.694501541</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1075009.016647179</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1181399.88</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1120395.893280752</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1181399.88</v>
       </c>
     </row>
     <row r="11">
@@ -700,19 +854,37 @@
         <v>1427617.9008</v>
       </c>
       <c r="C11" t="n">
-        <v>900284.6241975442</v>
+        <v>961930.6147643093</v>
       </c>
       <c r="D11" t="n">
-        <v>454975.1232203955</v>
+        <v>530856.9955856972</v>
       </c>
       <c r="E11" t="n">
-        <v>1427617.9008</v>
+        <v>1980925.430400017</v>
       </c>
       <c r="F11" t="n">
-        <v>961930.6147643093</v>
+        <v>1412425.360236331</v>
       </c>
       <c r="G11" t="n">
-        <v>530856.9955856972</v>
+        <v>243883.9464986075</v>
+      </c>
+      <c r="H11" t="n">
+        <v>728280.1199999312</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9095.797163709341</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>728280.1200000007</v>
+      </c>
+      <c r="L11" t="n">
+        <v>293074.6101389172</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -725,27 +897,46 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>478419.1605583254</v>
+        <v>393122.8072656688</v>
       </c>
       <c r="D12" t="n">
-        <v>629110.0844337253</v>
+        <v>600974.2146398668</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>393122.8072656688</v>
+        <v>538021.3225405292</v>
       </c>
       <c r="G12" t="n">
-        <v>600974.2146398668</v>
+        <v>1094620.28794522</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>65584.40310581523</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="H2:J2"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Plotting/production_shares_olefins.xlsx
+++ b/Plotting/production_shares_olefins.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Emissionlimit Brownfield</t>
+          <t>EmissionLimit Brownfield</t>
         </is>
       </c>
       <c r="C1" s="1" t="n"/>
